--- a/Mapeamento/Planilha.xlsx
+++ b/Mapeamento/Planilha.xlsx
@@ -790,38 +790,38 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Moeda" xfId="7" builtinId="4"/>
     <cellStyle name="Moeda [0]" xfId="6" builtinId="7"/>
-    <cellStyle name="normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="5" builtinId="5"/>
     <cellStyle name="Separador de milhares [0]" xfId="8" builtinId="6"/>
     <cellStyle name="Título" xfId="4" builtinId="15"/>
